--- a/FlorenceCPL/FlorenceCPL/bin/Debug/whatToBuy.xlsx
+++ b/FlorenceCPL/FlorenceCPL/bin/Debug/whatToBuy.xlsx
@@ -397,32 +397,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25">
+    <row r="1" spans="1:6" ht="26.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>14450</v>
+        <v>24000</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="D1">
-        <v>53</v>
+        <v>12000</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -430,33 +433,39 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>6750</v>
+        <v>6270</v>
       </c>
       <c r="C3">
-        <v>345</v>
+        <v>6270</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>8360</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -464,64 +473,76 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="26.25">
+      <c r="F4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>532</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="26.25">
+      <c r="F5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>34556</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>345345</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2335</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>5700</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
+        <v>7524</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7524</v>
+      </c>
+      <c r="D7" s="3">
+        <v>7524</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
+      </c>
+      <c r="F7">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
